--- a/analysis_f.xlsx
+++ b/analysis_f.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,6 +90,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4058,11 +4059,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="413492544"/>
-        <c:axId val="413494504"/>
+        <c:axId val="383649144"/>
+        <c:axId val="383654240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="413492544"/>
+        <c:axId val="383649144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4104,7 +4105,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413494504"/>
+        <c:crossAx val="383654240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4112,7 +4113,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="413494504"/>
+        <c:axId val="383654240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4163,7 +4164,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413492544"/>
+        <c:crossAx val="383649144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4177,6 +4178,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4257,699 +4259,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$1:$D$101</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>266</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>278</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>291</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>319</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>383</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>401</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>461</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>482</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>504</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>551</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>577</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>604</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>632</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>661</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>691</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>723</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>756</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>790</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>826</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>863</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>902</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>943</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>985</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1029</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1075</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1122</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1171</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1222</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1275</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1330</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1387</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1446</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1507</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1570</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1636</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1704</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1774</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1846</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1921</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2077</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2159</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2243</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2329</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2418</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2509</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2602</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2698</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2796</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2896</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2998</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3102</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>3208</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>3316</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3426</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3538</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>3652</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>3767</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>3884</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>4002</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>4122</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>4243</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>4365</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>4487</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>4610</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>4734</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>4858</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>4982</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>5106</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>5230</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>5354</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$1:$E$101</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1045</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1091</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1139</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1189</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1241</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1351</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1409</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1469</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1531</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1595</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1662</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1731</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1802</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1875</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1951</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2109</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2192</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2277</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2364</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2454</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2546</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2640</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2737</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2836</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2937</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3040</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3145</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3252</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3361</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3472</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3585</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3699</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3815</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3932</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4051</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4171</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4292</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4414</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4537</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4660</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4784</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4908</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>5032</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5156</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5280</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>5404</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5528</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5651</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5773</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5895</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6015</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6134</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>6252</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6369</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>6484</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>6597</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6709</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6819</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6927</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>7033</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>7137</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>7239</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>7338</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>7435</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>7530</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>7622</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>7712</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7885</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>7968</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>8048</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>8126</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>8202</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>8275</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>8346</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>8415</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>8481</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8545</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8607</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>8666</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8723</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8778</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8831</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>8882</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8931</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8978</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>9023</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>9067</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>9109</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>9149</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>9187</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>9224</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>9259</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>9293</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>9325</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>9356</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>9386</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -5275,7 +4595,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -5598,336 +4918,10 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$1:$F$101</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5249</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5373</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5497</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5620</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5743</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5865</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5986</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6106</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6224</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6341</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6457</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6571</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6683</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6793</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6901</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7007</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7111</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7213</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7313</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7411</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7506</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7599</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7690</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7778</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7864</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7947</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8028</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8107</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8183</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8257</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8328</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8397</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8464</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8529</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8591</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8651</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8709</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8765</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8819</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8871</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>8921</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>8969</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>9015</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>9059</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>9101</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>9141</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>9180</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9217</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>9253</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>9287</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>9320</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>9351</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>9381</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9410</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>9437</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>9463</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>9488</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>9512</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>9535</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>9557</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>9578</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>9598</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>9617</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>9635</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>9652</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>9668</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>9684</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>9699</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>9713</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>9726</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>9739</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>9751</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>9763</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>9774</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>9785</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>9795</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>9805</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>9814</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>9823</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>9831</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>9839</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>9846</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>9853</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>9860</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>9866</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>9872</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>9878</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>9884</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>9889</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>9894</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>9899</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>9903</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>9907</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>9911</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>9915</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>9919</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>9923</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>9926</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -6258,24 +5252,1080 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="413490976"/>
-        <c:axId val="413493720"/>
+        <c:axId val="383652672"/>
+        <c:axId val="220024312"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="31750" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$1:$D$101</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="101"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>109</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>114</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>119</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>124</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>136</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>142</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>148</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>155</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>162</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>169</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>177</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>185</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>194</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>203</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>212</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>222</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>232</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>243</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>254</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>266</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>278</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>291</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>305</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>319</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>334</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>350</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>366</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>383</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>401</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>420</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>440</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>461</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>482</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>504</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>527</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>551</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>577</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>604</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>632</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>661</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>691</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>723</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>756</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>790</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>826</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>863</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>902</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>943</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>985</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>1029</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>1075</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>1122</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>1171</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>1222</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>1275</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>1330</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>1387</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>1446</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>1507</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>1570</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>1636</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>1704</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>1774</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>1846</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>1921</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>1998</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>2077</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>2159</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>2243</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>2329</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>2418</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>2509</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>2602</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>2698</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>2796</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>2896</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>2998</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>3102</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>3208</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>3316</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>3426</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>3538</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>3652</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>3767</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>3884</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>4002</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>4122</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>4243</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>4365</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>4487</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>4610</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>4734</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>4858</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>4982</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>5106</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>5230</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>5354</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="31750" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$1:$E$101</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="101"/>
+                      <c:pt idx="0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1045</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1091</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1139</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1189</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1241</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1295</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1351</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1409</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1469</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1531</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1595</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1662</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1731</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1802</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1875</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1951</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2029</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2109</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2192</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2277</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2364</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2454</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2546</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2640</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2737</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2836</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2937</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>3040</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>3145</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>3252</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>3361</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>3472</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>3585</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>3699</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>3815</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>3932</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>4051</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>4171</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>4292</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>4414</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>4537</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>4660</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>4784</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>4908</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>5032</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>5156</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>5280</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>5404</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>5528</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>5651</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>5773</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>5895</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>6015</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>6134</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>6252</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>6369</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>6484</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>6597</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>6709</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>6819</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>6927</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>7033</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>7137</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>7239</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>7338</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>7435</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>7530</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>7622</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>7712</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>7800</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>7885</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>7968</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>8048</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>8126</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>8202</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>8275</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>8346</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>8415</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>8481</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>8545</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>8607</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>8666</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>8723</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>8778</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>8831</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>8882</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>8931</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>8978</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>9023</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>9067</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>9109</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>9149</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>9187</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>9224</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>9259</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>9293</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>9325</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>9356</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>9386</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:spPr>
+                  <a:ln w="31750" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$1:$F$101</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="101"/>
+                      <c:pt idx="0">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5125</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5249</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5373</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5497</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5620</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5743</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5865</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5986</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>6106</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6224</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>6341</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>6457</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>6571</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>6683</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>6793</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>6901</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>7007</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>7111</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>7213</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>7313</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>7411</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>7506</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>7599</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>7690</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>7778</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>7864</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>7947</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>8028</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>8107</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>8183</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>8257</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>8328</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>8397</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>8464</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>8529</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>8591</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>8651</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>8709</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>8765</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>8819</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>8871</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>8921</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>8969</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>9015</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>9059</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>9101</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>9141</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>9180</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>9217</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>9253</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>9287</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>9320</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>9351</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>9381</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>9410</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>9437</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>9463</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>9488</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>9512</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>9535</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>9557</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>9578</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>9598</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>9617</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>9635</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>9652</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>9668</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>9684</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>9699</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>9713</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>9726</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>9739</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>9751</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>9763</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>9774</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>9785</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>9795</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>9805</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>9814</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>9823</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>9831</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>9839</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>9846</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>9853</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>9860</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>9866</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>9872</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>9878</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>9884</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>9889</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>9894</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>9899</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>9903</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>9907</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>9911</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>9915</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>9919</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>9923</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>9926</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="413490976"/>
+        <c:axId val="383652672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Generation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -6291,10 +6341,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6304,7 +6351,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413493720"/>
+        <c:crossAx val="220024312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6312,7 +6359,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="413493720"/>
+        <c:axId val="220024312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6322,7 +6369,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -6332,6 +6379,56 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Population</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6350,10 +6447,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6363,7 +6457,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413490976"/>
+        <c:crossAx val="383652672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6375,37 +6469,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6416,7 +6479,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -6457,374 +6520,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$1:$H$100</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>11000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10945</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10893</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10844</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10798</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10754</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10713</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10674</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10638</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10604</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10571</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10540</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10511</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10484</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10458</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10434</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10411</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10389</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10368</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10348</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10329</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10312</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10295</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>10279</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10264</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10250</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10237</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10224</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>10212</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>10201</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>10190</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10180</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10170</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>10161</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10152</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>10144</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>10136</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>10129</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>10122</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>10115</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>10109</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10103</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>10097</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>10092</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>10087</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>10082</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>10077</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>10073</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>10069</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>10065</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>10061</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>10057</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>10054</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>10051</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>10048</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>10045</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>10042</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>10039</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>10037</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>10035</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>10033</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>10031</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>10029</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>10027</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>10025</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>10023</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>10021</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>10019</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>10018</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>10017</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>10016</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>10015</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>10014</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>10013</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>10012</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>10011</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>10010</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>10009</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>10008</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>10007</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>10006</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>10005</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>10004</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>10003</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>10002</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>10001</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -7147,336 +6853,10 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$1:$I$100</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14625</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14286</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13979</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13700</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13446</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13214</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12805</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12625</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12459</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12305</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12163</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12031</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11908</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11794</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11688</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11589</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11496</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11410</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11329</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11253</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11182</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11115</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11053</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10994</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10939</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10887</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>10838</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>10792</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>10749</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10708</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10670</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>10634</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10600</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>10568</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>10537</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>10508</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>10481</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>10455</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>10431</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10408</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>10386</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>10365</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>10346</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>10328</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>10311</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>10294</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>10278</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>10263</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>10249</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>10236</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>10223</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>10211</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>10200</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>10189</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>10179</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>10169</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>10160</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>10151</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>10143</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>10135</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>10128</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>10121</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>10114</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>10108</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>10102</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>10096</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>10091</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>10086</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>10081</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>10076</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>10072</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>10068</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>10064</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>10060</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>10056</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>10053</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>10050</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>10047</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>10044</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>10041</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>10038</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>10036</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>10034</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>10032</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>10030</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>10028</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>10026</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>10024</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>10022</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>10020</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>10018</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>10017</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>10016</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>10015</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>10014</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>10013</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>10012</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>10011</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -7799,336 +7179,10 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$1:$J$100</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18145</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17406</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16761</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16194</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15692</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15245</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14845</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14485</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14160</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13865</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13597</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13352</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13128</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12922</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12733</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12559</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12398</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12249</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>12111</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11983</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11864</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11753</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11649</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11552</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>11462</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>11378</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>11299</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>11225</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>11156</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>11091</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>11030</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>10973</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10919</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>10868</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>10820</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>10775</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>10733</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>10693</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>10655</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10620</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>10587</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>10555</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>10525</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>10497</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>10470</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>10445</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>10421</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>10399</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>10378</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>10358</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>10339</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>10321</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>10304</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>10288</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>10273</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>10258</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>10244</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>10231</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>10219</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>10207</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>10196</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>10186</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>10176</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>10167</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>10158</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>10149</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>10141</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>10133</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>10126</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>10119</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>10112</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>10106</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>10100</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>10094</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>10089</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>10084</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>10079</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>10075</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>10071</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>10067</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>10063</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>10059</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>10056</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>10053</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>10050</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>10047</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>10044</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>10041</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>10038</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>10036</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>10034</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>10032</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>10030</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>10028</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>10026</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>10024</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>10022</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>10020</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -8451,338 +7505,10 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$N$1:$N$100</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29920</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26939</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24657</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22850</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21381</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20164</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19139</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18264</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17509</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16851</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16273</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15762</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15307</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14900</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14534</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>14204</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13905</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13633</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13385</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>13158</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12950</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>12758</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12582</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>12419</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>12268</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>12128</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>11998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>11878</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>11766</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>11662</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>11565</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>11474</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>11389</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>11309</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>11234</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>11164</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>11099</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>11038</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>10980</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10926</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>10875</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>10827</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>10782</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>10739</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>10699</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>10661</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>10625</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>10591</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>10559</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>10529</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>10501</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>10474</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>10449</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>10425</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>10402</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>10381</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>10361</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>10342</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>10324</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>10307</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>10291</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>10276</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>10261</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>10247</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>10234</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>10222</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>10210</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>10199</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>10188</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>10178</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>10168</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>10159</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>10150</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>10142</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>10134</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>10127</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>10120</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>10113</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>10107</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>10101</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>10095</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>10090</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>10085</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>10080</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>10075</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>10071</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>10067</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>10063</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>10059</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>10056</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>10053</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>10050</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>10047</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>10044</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>10041</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>10038</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>10036</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>10034</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
@@ -9115,24 +7841,1416 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="413495288"/>
-        <c:axId val="413495680"/>
+        <c:axId val="220030584"/>
+        <c:axId val="220030976"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="31750" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$1:$H$100</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="100"/>
+                      <c:pt idx="0">
+                        <c:v>11000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10945</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10893</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10844</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10798</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10754</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10713</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10674</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>10638</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10604</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10571</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>10540</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>10511</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>10484</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>10458</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>10434</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>10411</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>10389</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>10368</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>10348</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>10329</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>10312</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>10295</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>10279</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>10264</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>10250</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>10237</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>10224</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>10212</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>10201</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>10190</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>10180</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>10170</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>10161</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>10152</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>10144</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>10136</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>10129</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>10122</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>10115</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>10109</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>10103</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>10097</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>10092</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>10087</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>10082</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>10077</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>10073</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>10069</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>10065</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>10061</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>10057</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>10054</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>10051</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>10048</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>10045</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>10042</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>10039</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>10037</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>10035</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>10033</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>10031</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>10029</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>10027</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>10025</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>10023</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>10021</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>10019</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>10018</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>10017</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>10016</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>10015</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>10014</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>10013</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>10012</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>10011</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>10010</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>10009</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>10008</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>10007</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>10006</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>10005</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>10004</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>10003</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>10002</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>10001</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:ln w="31750" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$1:$I$100</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="100"/>
+                      <c:pt idx="0">
+                        <c:v>15000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>14625</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>14286</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>13979</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>13700</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>13446</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>13214</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>13001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>12805</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>12625</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>12459</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12305</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12163</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>12031</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>11908</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>11794</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>11688</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>11589</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>11496</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>11410</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>11329</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>11253</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>11182</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>11115</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>11053</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>10994</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>10939</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>10887</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>10838</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>10792</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>10749</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>10708</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>10670</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>10634</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>10600</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>10568</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>10537</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>10508</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>10481</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>10455</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>10431</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>10408</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>10386</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>10365</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>10346</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>10328</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>10311</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>10294</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>10278</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>10263</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>10249</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>10236</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>10223</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>10211</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>10200</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>10189</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>10179</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>10169</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>10160</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>10151</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>10143</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>10135</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>10128</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>10121</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>10114</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>10108</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>10102</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>10096</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>10091</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>10086</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>10081</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>10076</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>10072</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>10068</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>10064</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>10060</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>10056</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>10053</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>10050</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>10047</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>10044</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>10041</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>10038</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>10036</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>10034</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>10032</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>10030</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>10028</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>10026</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>10024</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>10022</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>10020</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>10018</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>10017</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>10016</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>10015</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>10014</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>10013</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>10012</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>10011</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:spPr>
+                  <a:ln w="31750" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$J$1:$J$100</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="100"/>
+                      <c:pt idx="0">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>19000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>18145</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>17406</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16761</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>16194</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>15692</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>15245</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>14845</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>14485</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>14160</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>13865</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13597</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13352</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>13128</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>12922</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>12733</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>12559</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>12398</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>12249</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>12111</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>11983</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>11864</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>11753</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>11649</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>11552</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>11462</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>11378</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>11299</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>11225</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>11156</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>11091</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>11030</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>10973</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>10919</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>10868</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>10820</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>10775</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>10733</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>10693</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>10655</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>10620</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>10587</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>10555</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>10525</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>10497</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>10470</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>10445</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>10421</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>10399</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>10378</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>10358</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>10339</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>10321</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>10304</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>10288</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>10273</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>10258</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>10244</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>10231</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>10219</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>10207</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>10196</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>10186</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>10176</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>10167</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>10158</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>10149</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>10141</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>10133</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>10126</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>10119</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>10112</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>10106</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>10100</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>10094</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>10089</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>10084</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>10079</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>10075</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>10071</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>10067</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>10063</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>10059</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>10056</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>10053</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>10050</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>10047</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>10044</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>10041</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>10038</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>10036</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>10034</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>10032</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>10030</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>10028</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>10026</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>10024</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>10022</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>10020</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:spPr>
+                  <a:ln w="31750" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$N$1:$N$100</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="100"/>
+                      <c:pt idx="0">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>34000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>29920</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>26939</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>24657</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>22850</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>21381</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>20164</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>19139</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>18264</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>17509</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16851</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>16273</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>15762</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15307</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>14900</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>14534</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>14204</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>13905</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>13633</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>13385</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>13158</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>12950</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>12758</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>12582</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>12419</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>12268</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>12128</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>11998</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>11878</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>11766</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>11662</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>11565</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>11474</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>11389</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>11309</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>11234</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>11164</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>11099</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>11038</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>10980</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>10926</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>10875</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>10827</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>10782</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>10739</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>10699</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>10661</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>10625</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>10591</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>10559</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>10529</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>10501</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>10474</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>10449</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>10425</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>10402</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>10381</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>10361</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>10342</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>10324</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>10307</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>10291</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>10276</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>10261</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>10247</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>10234</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>10222</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>10210</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>10199</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>10188</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>10178</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>10168</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>10159</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>10150</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>10142</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>10134</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>10127</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>10120</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>10113</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>10107</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>10101</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>10095</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>10090</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>10085</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>10080</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>10075</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>10071</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>10067</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>10063</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>10059</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>10056</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>10053</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>10050</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>10047</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>10044</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>10041</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>10038</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>10036</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>10034</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="413495288"/>
+        <c:axId val="220030584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Generation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -9148,10 +9266,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -9161,7 +9276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413495680"/>
+        <c:crossAx val="220030976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9169,7 +9284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="413495680"/>
+        <c:axId val="220030976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9179,7 +9294,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -9189,6 +9304,56 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Population</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9207,10 +9372,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -9220,7 +9382,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413495288"/>
+        <c:crossAx val="220030584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9242,7 +9404,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -9906,33 +10068,27 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -9947,7 +10103,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -9955,7 +10111,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -9963,17 +10119,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -9982,9 +10135,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -10007,45 +10159,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -10054,36 +10196,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="12700">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt2"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -10099,21 +10237,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -10147,17 +10280,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -10166,14 +10299,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10185,26 +10317,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -10218,17 +10344,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -10237,17 +10362,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -10256,17 +10381,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -10275,27 +10399,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -10303,11 +10424,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -10315,17 +10444,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -10334,12 +10463,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -10348,14 +10474,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -10364,10 +10490,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -10376,7 +10499,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -10397,10 +10520,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -10409,46 +10529,34 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -10463,7 +10571,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -10471,7 +10579,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -10479,17 +10587,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -10498,9 +10603,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -10523,45 +10627,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -10570,36 +10664,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="12700">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt2"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -10615,21 +10705,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -10663,17 +10748,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -10682,14 +10767,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10701,26 +10785,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -10734,17 +10812,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -10753,17 +10830,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -10772,17 +10849,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -10791,27 +10867,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -10819,11 +10892,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -10831,17 +10912,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -10850,12 +10931,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -10864,14 +10942,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -10880,10 +10958,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -10892,7 +10967,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -10913,10 +10988,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -10925,14 +10997,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -10972,15 +11038,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11001,16 +11067,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11297,7 +11363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
@@ -11568,7 +11634,7 @@
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1">
-        <f t="shared" ref="W2:W18" si="16" xml:space="preserve"> $A$2 + (W$1 - $A$2) * EXP($A$5 * -$P3)</f>
+        <f t="shared" ref="W3:W18" si="16" xml:space="preserve"> $A$2 + (W$1 - $A$2) * EXP($A$5 * -$P3)</f>
         <v>10904.837418035959</v>
       </c>
       <c r="X3" s="1">
@@ -21605,7 +21671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
